--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TR_KAMDAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riett\experimen\TR_KAMDAT_672018380\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,11 +373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-367272880"/>
-        <c:axId val="-367270160"/>
+        <c:axId val="516479216"/>
+        <c:axId val="516468336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-367272880"/>
+        <c:axId val="516479216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,12 +433,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367270160"/>
+        <c:crossAx val="516468336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-367270160"/>
+        <c:axId val="516468336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367272880"/>
+        <c:crossAx val="516479216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,11 +724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-367269616"/>
-        <c:axId val="-367280496"/>
+        <c:axId val="516472688"/>
+        <c:axId val="516473232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-367269616"/>
+        <c:axId val="516472688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,12 +784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367280496"/>
+        <c:crossAx val="516473232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-367280496"/>
+        <c:axId val="516473232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367269616"/>
+        <c:crossAx val="516472688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1075,11 +1075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-367275056"/>
-        <c:axId val="-367268528"/>
+        <c:axId val="516480304"/>
+        <c:axId val="516465616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-367275056"/>
+        <c:axId val="516480304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,12 +1135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367268528"/>
+        <c:crossAx val="516465616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-367268528"/>
+        <c:axId val="516465616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367275056"/>
+        <c:crossAx val="516480304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,11 +1426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-367283760"/>
-        <c:axId val="-367273968"/>
+        <c:axId val="516468880"/>
+        <c:axId val="516473776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-367283760"/>
+        <c:axId val="516468880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,12 +1486,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367273968"/>
+        <c:crossAx val="516473776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-367273968"/>
+        <c:axId val="516473776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367283760"/>
+        <c:crossAx val="516468880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1777,11 +1777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-367282672"/>
-        <c:axId val="-367275600"/>
+        <c:axId val="516467248"/>
+        <c:axId val="516474320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-367282672"/>
+        <c:axId val="516467248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,12 +1837,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367275600"/>
+        <c:crossAx val="516474320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-367275600"/>
+        <c:axId val="516474320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,7 +1899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367282672"/>
+        <c:crossAx val="516467248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2128,11 +2128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-367283216"/>
-        <c:axId val="-367274512"/>
+        <c:axId val="516472144"/>
+        <c:axId val="516474864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-367283216"/>
+        <c:axId val="516472144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,12 +2188,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367274512"/>
+        <c:crossAx val="516474864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-367274512"/>
+        <c:axId val="516474864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-367283216"/>
+        <c:crossAx val="516472144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6630,7 +6630,7 @@
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6793,7 +6793,7 @@
         <v>149546300001024</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ref="G10:G32" si="5">VALUE(MID(F10, 1, 3))</f>
+        <f t="shared" ref="G10:G31" si="5">VALUE(MID(F10, 1, 3))</f>
         <v>149</v>
       </c>
       <c r="H10" s="12">

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -6630,7 +6630,7 @@
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -373,11 +373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516479216"/>
-        <c:axId val="516468336"/>
+        <c:axId val="1610421312"/>
+        <c:axId val="1610419136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516479216"/>
+        <c:axId val="1610421312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,12 +433,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516468336"/>
+        <c:crossAx val="1610419136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516468336"/>
+        <c:axId val="1610419136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516479216"/>
+        <c:crossAx val="1610421312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,11 +724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516472688"/>
-        <c:axId val="516473232"/>
+        <c:axId val="1555068480"/>
+        <c:axId val="1555069568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516472688"/>
+        <c:axId val="1555068480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,12 +784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516473232"/>
+        <c:crossAx val="1555069568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516473232"/>
+        <c:axId val="1555069568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516472688"/>
+        <c:crossAx val="1555068480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1075,11 +1075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516480304"/>
-        <c:axId val="516465616"/>
+        <c:axId val="1778231936"/>
+        <c:axId val="1778228672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516480304"/>
+        <c:axId val="1778231936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,12 +1135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516465616"/>
+        <c:crossAx val="1778228672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516465616"/>
+        <c:axId val="1778228672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516480304"/>
+        <c:crossAx val="1778231936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,11 +1426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516468880"/>
-        <c:axId val="516473776"/>
+        <c:axId val="1778229216"/>
+        <c:axId val="1778225408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516468880"/>
+        <c:axId val="1778229216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,12 +1486,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516473776"/>
+        <c:crossAx val="1778225408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516473776"/>
+        <c:axId val="1778225408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516468880"/>
+        <c:crossAx val="1778229216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1777,11 +1777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516467248"/>
-        <c:axId val="516474320"/>
+        <c:axId val="1778225952"/>
+        <c:axId val="1778235744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516467248"/>
+        <c:axId val="1778225952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,12 +1837,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516474320"/>
+        <c:crossAx val="1778235744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516474320"/>
+        <c:axId val="1778235744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,7 +1899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516467248"/>
+        <c:crossAx val="1778225952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2056,7 +2056,7 @@
                 <c:formatCode>000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
@@ -2086,7 +2086,7 @@
                   <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>476</c:v>
@@ -2104,7 +2104,7 @@
                   <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>26</c:v>
@@ -2128,11 +2128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516472144"/>
-        <c:axId val="516474864"/>
+        <c:axId val="1778237920"/>
+        <c:axId val="1778236288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516472144"/>
+        <c:axId val="1778237920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,12 +2188,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516474864"/>
+        <c:crossAx val="1778236288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516474864"/>
+        <c:axId val="1778236288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516472144"/>
+        <c:crossAx val="1778237920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6629,8 +6629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6748,8 +6748,8 @@
         <v>5981816.0000081919</v>
       </c>
       <c r="F9" s="13" t="str">
-        <f>SUBSTITUTE(C9, ",", "")</f>
-        <v>29909170000041</v>
+        <f>LEFT(SUBSTITUTE(C9, ",", "")&amp;"000000000000000", 15)</f>
+        <v>299091700000410</v>
       </c>
       <c r="G9" s="12">
         <f>VALUE(MID(F9, 1, 3))</f>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="K9" s="12">
         <f>VALUE(MID(F9, 13, 3))</f>
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -6789,11 +6789,11 @@
         <v>2990908.0000204789</v>
       </c>
       <c r="F10" s="13" t="str">
-        <f t="shared" ref="F10:F31" si="4">SUBSTITUTE(C10, ",", "")</f>
+        <f t="shared" ref="F10:F31" si="4">LEFT(SUBSTITUTE(C10, ",", "")&amp;"000000000000000", 15)</f>
         <v>149546300001024</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ref="G10:G31" si="5">VALUE(MID(F10, 1, 3))</f>
+        <f t="shared" ref="G10:G33" si="5">VALUE(MID(F10, 1, 3))</f>
         <v>149</v>
       </c>
       <c r="H10" s="12">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>29298141858053</v>
+        <v>292981418580530</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="5"/>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="K19" s="12">
         <f t="shared" si="9"/>
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="F25" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>54994965974109</v>
+        <v>549949659741090</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="5"/>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="K25" s="12">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -9884,8 +9884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
